--- a/Consumo_EyeGait.xlsx
+++ b/Consumo_EyeGait.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\EyeGait_DEOP_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB582BD8-2E7E-4C30-BA63-6670D393FBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98BC7BA-7B55-4F8E-A992-02272ED32BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{E9182294-2882-4310-AE2F-E8A8183ADC66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E9182294-2882-4310-AE2F-E8A8183ADC66}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>Datos</t>
   </si>
   <si>
-    <t xml:space="preserve"> TX  0 dBm</t>
-  </si>
-  <si>
     <t>RX</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>Modo high-performance</t>
   </si>
   <si>
-    <t>TX  0 dBm</t>
-  </si>
-  <si>
     <t>Vibrador + BJT</t>
   </si>
   <si>
@@ -140,21 +134,35 @@
     <t>Control batería</t>
   </si>
   <si>
-    <t>Trnasformador lineal</t>
-  </si>
-  <si>
-    <t>Corriente disipación transformador lineal</t>
-  </si>
-  <si>
     <t>Corriente alimentación Icc</t>
+  </si>
+  <si>
+    <t>Regulador lineal</t>
+  </si>
+  <si>
+    <t>Corriente disipación regulador lineal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TX  5 dBm</t>
+  </si>
+  <si>
+    <t>TX  9 dBm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -294,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,36 +317,37 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -346,12 +355,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -369,10 +372,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -692,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE2598B-420D-4E6F-8CA2-9D1778DFE80D}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,72 +704,72 @@
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="20"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <f>F20</f>
         <v>0.4</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="15">
+      <c r="F2" s="6">
         <f>SUM(C2:C5)</f>
-        <v>6.4799333333333333</v>
-      </c>
-      <c r="G2" s="15" t="s">
+        <v>6.4841000000000006</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="6">
         <f>I23/F2</f>
-        <v>30.864515067027437</v>
-      </c>
-      <c r="I2" s="15" t="s">
+        <v>30.84468160577412</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <f>C11+C12+C13+C14</f>
-        <v>3.7382666666666666</v>
-      </c>
-      <c r="D3" s="11" t="s">
+        <v>3.7424333333333335</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1"/>
@@ -781,15 +780,15 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <f>C16</f>
         <v>0.84166666666666667</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="1"/>
@@ -800,15 +799,15 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="A5" s="11"/>
+      <c r="B5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="8">
         <f>C23+C24</f>
         <v>1.5</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1"/>
@@ -867,45 +866,45 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="16" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4">
         <f>((F11/(60*60))*I11)</f>
-        <v>8.4722222222222213E-3</v>
+        <v>1.2638888888888889E-2</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2">
-        <v>6.1</v>
+        <v>9.1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I11" s="2">
         <f>5</f>
@@ -916,9 +915,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4">
         <f>((F12/(60*60))*I11)</f>
@@ -928,13 +927,13 @@
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2">
         <v>5.9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>9</v>
@@ -947,7 +946,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
@@ -966,16 +965,16 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4">
         <f>0.4+8.2*(10^-3)*I12</f>
@@ -985,10 +984,10 @@
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -996,23 +995,23 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4">
         <f>((F18+F17)/(60*60))*F16</f>
@@ -1022,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2">
         <f>5*12</f>
@@ -1036,25 +1035,25 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2">
         <v>0.5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1065,30 +1064,30 @@
         <v>50</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4">
         <f>F20</f>
@@ -1098,54 +1097,54 @@
         <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="2">
         <v>0.4</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2">
         <v>0.65</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="C23" s="4">
         <f>F23</f>
@@ -1155,16 +1154,16 @@
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F23" s="2">
         <v>1.5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I23" s="2">
         <v>200</v>
@@ -1174,9 +1173,9 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="4">
         <f>F24</f>
@@ -1186,15 +1185,18 @@
         <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1215,23 +1217,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="bbbceb0c-5c36-43e9-a79d-0e55072d7d9b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C4C07D750AB4F746B93F3459C5B09FDD" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8a1f63455d7efce08c90653b559f55c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bbbceb0c-5c36-43e9-a79d-0e55072d7d9b" xmlns:ns4="72bf5c25-9caf-45a5-a3bf-69a06b805a0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="656dfe91a0ce3c77490d15146d7938ba" ns3:_="" ns4:_="">
     <xsd:import namespace="bbbceb0c-5c36-43e9-a79d-0e55072d7d9b"/>
@@ -1484,32 +1469,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3526B69-09E6-4250-BFA1-A601E7483052}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bbbceb0c-5c36-43e9-a79d-0e55072d7d9b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="72bf5c25-9caf-45a5-a3bf-69a06b805a0e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65105115-BB2C-40C1-AD63-8821AC5D55A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="bbbceb0c-5c36-43e9-a79d-0e55072d7d9b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B118A7E7-3503-4079-A710-5802AC95FCA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1526,4 +1503,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65105115-BB2C-40C1-AD63-8821AC5D55A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3526B69-09E6-4250-BFA1-A601E7483052}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bbbceb0c-5c36-43e9-a79d-0e55072d7d9b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="72bf5c25-9caf-45a5-a3bf-69a06b805a0e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Consumo_EyeGait.xlsx
+++ b/Consumo_EyeGait.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\EyeGait_DEOP_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98BC7BA-7B55-4F8E-A992-02272ED32BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B09C18-C2C4-4781-A6C8-2EF2E8777487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E9182294-2882-4310-AE2F-E8A8183ADC66}"/>
   </bookViews>
@@ -140,13 +140,13 @@
     <t>Regulador lineal</t>
   </si>
   <si>
-    <t>Corriente disipación regulador lineal</t>
-  </si>
-  <si>
     <t xml:space="preserve"> TX  5 dBm</t>
   </si>
   <si>
     <t>TX  9 dBm</t>
+  </si>
+  <si>
+    <t>Corriente disipación regulador lineal (ground pin current)</t>
   </si>
 </sst>
 </file>
@@ -310,7 +310,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -357,6 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,7 +694,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,73 +703,73 @@
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="52.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="15"/>
+      <c r="I1" s="14"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <f>F20</f>
         <v>0.4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <f>SUM(C2:C5)</f>
-        <v>6.4841000000000006</v>
-      </c>
-      <c r="G2" s="6" t="s">
+        <v>5.055600000000001</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <f>I23/F2</f>
-        <v>30.84468160577412</v>
-      </c>
-      <c r="I2" s="6" t="s">
+        <v>39.560091779412922</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <f>C11+C12+C13+C14</f>
         <v>3.7424333333333335</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1"/>
@@ -780,15 +780,15 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <f>C16</f>
         <v>0.84166666666666667</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="1"/>
@@ -799,15 +799,15 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <f>C23+C24</f>
-        <v>1.5</v>
-      </c>
-      <c r="D5" s="8" t="s">
+        <v>7.1500000000000008E-2</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1"/>
@@ -866,36 +866,36 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3">
         <f>((F11/(60*60))*I11)</f>
         <v>1.2638888888888889E-2</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2">
         <v>9.1</v>
@@ -915,15 +915,15 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f>((F12/(60*60))*I11)</f>
         <v>8.1944444444444452E-3</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -946,15 +946,15 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f>F13*I12</f>
         <v>2.9279999999999999</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -972,15 +972,15 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f>0.4+8.2*(10^-3)*I12</f>
         <v>0.79359999999999997</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -996,28 +996,28 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f>((F18+F17)/(60*60))*F16</f>
         <v>0.84166666666666667</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1035,10 +1035,10 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1053,10 +1053,10 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
         <v>3</v>
       </c>
@@ -1071,29 +1071,29 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f>F20</f>
         <v>0.4</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1110,10 +1110,10 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1128,36 +1128,37 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <f>F23</f>
-        <v>1.5</v>
-      </c>
-      <c r="D23" s="4" t="s">
+        <v>6.5000000000000006E-3</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F23" s="2">
-        <v>1.5</v>
+        <f>6.5*10^-3</f>
+        <v>6.5000000000000006E-3</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>18</v>
@@ -1173,21 +1174,24 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <f>F24</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="4" t="s">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="F24" s="2">
+        <f>65*10^-3</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>18</v>
       </c>
@@ -1195,8 +1199,11 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F28" s="19"/>
+    </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E31" s="10"/>
+      <c r="E31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1217,6 +1224,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="bbbceb0c-5c36-43e9-a79d-0e55072d7d9b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C4C07D750AB4F746B93F3459C5B09FDD" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8a1f63455d7efce08c90653b559f55c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bbbceb0c-5c36-43e9-a79d-0e55072d7d9b" xmlns:ns4="72bf5c25-9caf-45a5-a3bf-69a06b805a0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="656dfe91a0ce3c77490d15146d7938ba" ns3:_="" ns4:_="">
     <xsd:import namespace="bbbceb0c-5c36-43e9-a79d-0e55072d7d9b"/>
@@ -1469,24 +1493,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3526B69-09E6-4250-BFA1-A601E7483052}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bbbceb0c-5c36-43e9-a79d-0e55072d7d9b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="72bf5c25-9caf-45a5-a3bf-69a06b805a0e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="bbbceb0c-5c36-43e9-a79d-0e55072d7d9b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65105115-BB2C-40C1-AD63-8821AC5D55A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B118A7E7-3503-4079-A710-5802AC95FCA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1503,29 +1535,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65105115-BB2C-40C1-AD63-8821AC5D55A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3526B69-09E6-4250-BFA1-A601E7483052}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bbbceb0c-5c36-43e9-a79d-0e55072d7d9b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="72bf5c25-9caf-45a5-a3bf-69a06b805a0e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>